--- a/excelfile/inputexcel.xlsx
+++ b/excelfile/inputexcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304085\eclipse-workspace\TravelInsurancePlanForStudent\excelfile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304085\eclipse-workspace\TravelInsurancePlanForStudent3\excelfile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1512397E-AFDA-4BA7-8033-3301CC4D6AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F5CF16-D8BA-450A-BD25-31733B65CFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3A80F16B-1A97-44B1-8EEB-24EDBDC2492A}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Sumit</t>
   </si>
   <si>
-    <t>sum@7889</t>
+    <t>Sumit Gokhe</t>
   </si>
   <si>
-    <t>Sumit Gokhe</t>
+    <t>sum@gmail.c</t>
   </si>
   <si>
     <t>sum@gmail.com</t>
@@ -92,9 +92,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,7 +425,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+      <c r="A1" s="2">
         <v>8975439543</v>
       </c>
     </row>
@@ -432,8 +435,8 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -443,17 +446,18 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>6789877665</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{7DF86E72-91A9-4B55-B763-40D2E27BE184}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{30E6E0F5-76D8-4175-A537-4A9C33D3DF1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
